--- a/cleaned files/Overall MCAT Scores and GPAs.xlsx
+++ b/cleaned files/Overall MCAT Scores and GPAs.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yli355\Documents\APE files\cleaned files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E45F8B7-9247-4BF5-B84B-E0A219C50CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="26340" yWindow="5025" windowWidth="24480" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -82,8 +88,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,13 +152,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -190,7 +204,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -224,6 +238,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -258,9 +273,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -433,127 +449,123 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1">
-        <v>0</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>126.4</v>
       </c>
       <c r="E2">
+        <v>126.5</v>
+      </c>
+      <c r="F2">
+        <v>126.3</v>
+      </c>
+      <c r="G2">
         <v>126.4</v>
-      </c>
-      <c r="F2">
-        <v>126.5</v>
-      </c>
-      <c r="G2">
-        <v>126.3</v>
       </c>
       <c r="H2">
         <v>126.4</v>
       </c>
       <c r="I2">
-        <v>126.4</v>
-      </c>
-      <c r="J2">
         <v>126.3</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1">
-        <v>1</v>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>2.8</v>
       </c>
       <c r="E3">
         <v>2.8</v>
       </c>
       <c r="F3">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="G3">
         <v>2.9</v>
       </c>
       <c r="H3">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>3</v>
       </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1">
-        <v>2</v>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>125.9</v>
       </c>
       <c r="E4">
         <v>125.9</v>
       </c>
       <c r="F4">
-        <v>125.9</v>
+        <v>125.7</v>
       </c>
       <c r="G4">
-        <v>125.7</v>
+        <v>125.8</v>
       </c>
       <c r="H4">
         <v>125.8</v>
@@ -561,28 +573,25 @@
       <c r="I4">
         <v>125.8</v>
       </c>
-      <c r="J4">
-        <v>125.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1">
-        <v>3</v>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>2.7</v>
       </c>
       <c r="E5">
         <v>2.7</v>
       </c>
       <c r="F5">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="G5">
         <v>2.8</v>
@@ -593,63 +602,57 @@
       <c r="I5">
         <v>2.8</v>
       </c>
-      <c r="J5">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1">
-        <v>4</v>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>126.7</v>
       </c>
       <c r="E6">
+        <v>126.8</v>
+      </c>
+      <c r="F6">
         <v>126.7</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>126.8</v>
       </c>
-      <c r="G6">
-        <v>126.7</v>
-      </c>
       <c r="H6">
-        <v>126.8</v>
+        <v>126.6</v>
       </c>
       <c r="I6">
         <v>126.6</v>
       </c>
-      <c r="J6">
-        <v>126.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1">
-        <v>5</v>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>2.7</v>
       </c>
       <c r="E7">
         <v>2.7</v>
       </c>
       <c r="F7">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="G7">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H7">
         <v>2.9</v>
@@ -657,60 +660,54 @@
       <c r="I7">
         <v>2.9</v>
       </c>
-      <c r="J7">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1">
-        <v>6</v>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>127.1</v>
       </c>
       <c r="E8">
-        <v>127.1</v>
+        <v>127.2</v>
       </c>
       <c r="F8">
-        <v>127.2</v>
+        <v>127.3</v>
       </c>
       <c r="G8">
-        <v>127.3</v>
+        <v>127.5</v>
       </c>
       <c r="H8">
-        <v>127.5</v>
+        <v>127.4</v>
       </c>
       <c r="I8">
         <v>127.4</v>
       </c>
-      <c r="J8">
-        <v>127.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1">
-        <v>7</v>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>2.7</v>
       </c>
       <c r="E9">
         <v>2.7</v>
       </c>
       <c r="F9">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="G9">
         <v>2.8</v>
@@ -721,127 +718,115 @@
       <c r="I9">
         <v>2.8</v>
       </c>
-      <c r="J9">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1">
-        <v>8</v>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>506.1</v>
+      </c>
+      <c r="E10">
+        <v>506.4</v>
+      </c>
+      <c r="F10">
+        <v>505.9</v>
+      </c>
+      <c r="G10">
+        <v>506.5</v>
+      </c>
+      <c r="H10">
+        <v>506.3</v>
+      </c>
+      <c r="I10">
+        <v>506.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10">
-        <v>506.1</v>
-      </c>
-      <c r="F10">
-        <v>506.4</v>
-      </c>
-      <c r="G10">
-        <v>505.9</v>
-      </c>
-      <c r="H10">
-        <v>506.5</v>
-      </c>
-      <c r="I10">
-        <v>506.3</v>
-      </c>
-      <c r="J10">
-        <v>506.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
       <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>9.3000000000000007</v>
       </c>
       <c r="E11">
-        <v>9.300000000000001</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F11">
-        <v>9.199999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="G11">
-        <v>9.699999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="H11">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="I11">
-        <v>10</v>
-      </c>
-      <c r="J11">
         <v>10.1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1">
-        <v>10</v>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>3.48</v>
+      </c>
+      <c r="E12">
+        <v>3.49</v>
+      </c>
+      <c r="F12">
+        <v>3.48</v>
+      </c>
+      <c r="G12">
+        <v>3.52</v>
+      </c>
+      <c r="H12">
+        <v>3.54</v>
+      </c>
+      <c r="I12">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12">
-        <v>3.48</v>
-      </c>
-      <c r="F12">
-        <v>3.49</v>
-      </c>
-      <c r="G12">
-        <v>3.48</v>
-      </c>
-      <c r="H12">
-        <v>3.52</v>
-      </c>
-      <c r="I12">
-        <v>3.54</v>
-      </c>
-      <c r="J12">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
       <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>0.43</v>
       </c>
       <c r="E13">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="F13">
+        <v>0.44</v>
+      </c>
+      <c r="G13">
         <v>0.42</v>
-      </c>
-      <c r="G13">
-        <v>0.44</v>
       </c>
       <c r="H13">
         <v>0.42</v>
@@ -849,127 +834,115 @@
       <c r="I13">
         <v>0.42</v>
       </c>
-      <c r="J13">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1">
-        <v>12</v>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>3.72</v>
       </c>
       <c r="E14">
-        <v>3.72</v>
+        <v>3.74</v>
       </c>
       <c r="F14">
         <v>3.74</v>
       </c>
       <c r="G14">
-        <v>3.74</v>
+        <v>3.76</v>
       </c>
       <c r="H14">
-        <v>3.76</v>
+        <v>3.78</v>
       </c>
       <c r="I14">
-        <v>3.78</v>
-      </c>
-      <c r="J14">
         <v>3.79</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1">
-        <v>13</v>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>0.28000000000000003</v>
       </c>
       <c r="E15">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F15">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G15">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H15">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="I15">
         <v>0.27</v>
       </c>
-      <c r="J15">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1">
-        <v>14</v>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>3.58</v>
+      </c>
+      <c r="E16">
+        <v>3.6</v>
+      </c>
+      <c r="F16">
+        <v>3.59</v>
+      </c>
+      <c r="G16">
+        <v>3.62</v>
+      </c>
+      <c r="H16">
+        <v>3.64</v>
+      </c>
+      <c r="I16">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16">
-        <v>3.58</v>
-      </c>
-      <c r="F16">
-        <v>3.6</v>
-      </c>
-      <c r="G16">
-        <v>3.59</v>
-      </c>
-      <c r="H16">
-        <v>3.62</v>
-      </c>
-      <c r="I16">
-        <v>3.64</v>
-      </c>
-      <c r="J16">
-        <v>3.66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
       <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>0.33</v>
       </c>
       <c r="E17">
         <v>0.33</v>
       </c>
       <c r="F17">
+        <v>0.34</v>
+      </c>
+      <c r="G17">
         <v>0.33</v>
-      </c>
-      <c r="G17">
-        <v>0.34</v>
       </c>
       <c r="H17">
         <v>0.33</v>
@@ -977,89 +950,80 @@
       <c r="I17">
         <v>0.33</v>
       </c>
-      <c r="J17">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1">
-        <v>16</v>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s">
-        <v>19</v>
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <v>127.8</v>
       </c>
       <c r="E18">
         <v>127.8</v>
       </c>
       <c r="F18">
-        <v>127.8</v>
+        <v>127.9</v>
       </c>
       <c r="G18">
         <v>127.9</v>
       </c>
       <c r="H18">
+        <v>127.8</v>
+      </c>
+      <c r="I18">
         <v>127.9</v>
       </c>
-      <c r="I18">
-        <v>127.8</v>
-      </c>
-      <c r="J18">
-        <v>127.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1">
-        <v>17</v>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>2.2000000000000002</v>
       </c>
       <c r="E19">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F19">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G19">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H19">
-        <v>2.2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I19">
-        <v>2.3</v>
-      </c>
-      <c r="J19">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1">
-        <v>18</v>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" t="s">
-        <v>19</v>
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>127.1</v>
       </c>
       <c r="E20">
-        <v>127.1</v>
+        <v>127</v>
       </c>
       <c r="F20">
         <v>127</v>
@@ -1071,94 +1035,85 @@
         <v>127</v>
       </c>
       <c r="I20">
-        <v>127</v>
-      </c>
-      <c r="J20">
         <v>126.9</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1">
-        <v>19</v>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>2.2999999999999998</v>
       </c>
       <c r="E21">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F21">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G21">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H21">
         <v>2.4</v>
       </c>
       <c r="I21">
-        <v>2.4</v>
-      </c>
-      <c r="J21">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1">
-        <v>20</v>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s">
-        <v>19</v>
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>128.1</v>
       </c>
       <c r="E22">
         <v>128.1</v>
       </c>
       <c r="F22">
+        <v>128.19999999999999</v>
+      </c>
+      <c r="G22">
+        <v>128.19999999999999</v>
+      </c>
+      <c r="H22">
         <v>128.1</v>
-      </c>
-      <c r="G22">
-        <v>128.2</v>
-      </c>
-      <c r="H22">
-        <v>128.2</v>
       </c>
       <c r="I22">
         <v>128.1</v>
       </c>
-      <c r="J22">
-        <v>128.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1">
-        <v>21</v>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>2.1</v>
       </c>
       <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
         <v>2.1</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
       </c>
       <c r="G23">
         <v>2.1</v>
@@ -1169,31 +1124,28 @@
       <c r="I23">
         <v>2.1</v>
       </c>
-      <c r="J23">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1">
-        <v>22</v>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>19</v>
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <v>128.5</v>
       </c>
       <c r="E24">
-        <v>128.5</v>
+        <v>128.6</v>
       </c>
       <c r="F24">
-        <v>128.6</v>
+        <v>128.80000000000001</v>
       </c>
       <c r="G24">
-        <v>128.8</v>
+        <v>128.9</v>
       </c>
       <c r="H24">
         <v>128.9</v>
@@ -1201,22 +1153,19 @@
       <c r="I24">
         <v>128.9</v>
       </c>
-      <c r="J24">
-        <v>128.9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1">
-        <v>23</v>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1233,121 +1182,109 @@
       <c r="I25">
         <v>2</v>
       </c>
-      <c r="J25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1">
-        <v>24</v>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" t="s">
-        <v>19</v>
+        <v>19</v>
+      </c>
+      <c r="D26">
+        <v>511.5</v>
       </c>
       <c r="E26">
         <v>511.5</v>
       </c>
       <c r="F26">
-        <v>511.5</v>
+        <v>511.9</v>
       </c>
       <c r="G26">
         <v>511.9</v>
       </c>
       <c r="H26">
-        <v>511.9</v>
+        <v>511.7</v>
       </c>
       <c r="I26">
-        <v>511.7</v>
-      </c>
-      <c r="J26">
         <v>511.8</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1">
-        <v>25</v>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>6.5</v>
       </c>
       <c r="E27">
         <v>6.5</v>
       </c>
       <c r="F27">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="G27">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="H27">
+        <v>6.9</v>
+      </c>
+      <c r="I27">
         <v>6.7</v>
       </c>
-      <c r="I27">
-        <v>6.9</v>
-      </c>
-      <c r="J27">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1">
-        <v>26</v>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" t="s">
-        <v>19</v>
+        <v>19</v>
+      </c>
+      <c r="D28">
+        <v>3.66</v>
       </c>
       <c r="E28">
         <v>3.66</v>
       </c>
       <c r="F28">
-        <v>3.66</v>
+        <v>3.67</v>
       </c>
       <c r="G28">
-        <v>3.67</v>
+        <v>3.68</v>
       </c>
       <c r="H28">
-        <v>3.68</v>
+        <v>3.71</v>
       </c>
       <c r="I28">
-        <v>3.71</v>
-      </c>
-      <c r="J28">
         <v>3.73</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1">
-        <v>27</v>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>0.3</v>
       </c>
       <c r="E29">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="F29">
         <v>0.31</v>
@@ -1356,62 +1293,56 @@
         <v>0.31</v>
       </c>
       <c r="H29">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="I29">
-        <v>0.3</v>
-      </c>
-      <c r="J29">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1">
-        <v>28</v>
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30">
+        <v>3.81</v>
+      </c>
+      <c r="E30">
+        <v>3.82</v>
+      </c>
+      <c r="F30">
+        <v>3.83</v>
+      </c>
+      <c r="G30">
+        <v>3.84</v>
+      </c>
+      <c r="H30">
+        <v>3.85</v>
+      </c>
+      <c r="I30">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
         <v>17</v>
       </c>
-      <c r="D30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30">
-        <v>3.81</v>
-      </c>
-      <c r="F30">
-        <v>3.82</v>
-      </c>
-      <c r="G30">
-        <v>3.83</v>
-      </c>
-      <c r="H30">
-        <v>3.84</v>
-      </c>
-      <c r="I30">
-        <v>3.85</v>
-      </c>
-      <c r="J30">
-        <v>3.87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
       <c r="C31" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="D31">
+        <v>0.22</v>
       </c>
       <c r="E31">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="F31">
         <v>0.21</v>
@@ -1420,76 +1351,67 @@
         <v>0.21</v>
       </c>
       <c r="H31">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="I31">
-        <v>0.2</v>
-      </c>
-      <c r="J31">
         <v>0.19</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1">
-        <v>30</v>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" t="s">
-        <v>19</v>
+        <v>19</v>
+      </c>
+      <c r="D32">
+        <v>3.73</v>
       </c>
       <c r="E32">
         <v>3.73</v>
       </c>
       <c r="F32">
-        <v>3.73</v>
+        <v>3.74</v>
       </c>
       <c r="G32">
-        <v>3.74</v>
+        <v>3.75</v>
       </c>
       <c r="H32">
-        <v>3.75</v>
+        <v>3.77</v>
       </c>
       <c r="I32">
-        <v>3.77</v>
-      </c>
-      <c r="J32">
         <v>3.79</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1">
-        <v>31</v>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="D33">
+        <v>0.24</v>
       </c>
       <c r="E33">
         <v>0.24</v>
       </c>
       <c r="F33">
+        <v>0.25</v>
+      </c>
+      <c r="G33">
         <v>0.24</v>
       </c>
-      <c r="G33">
-        <v>0.25</v>
-      </c>
       <c r="H33">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="I33">
-        <v>0.23</v>
-      </c>
-      <c r="J33">
         <v>0.23</v>
       </c>
     </row>
